--- a/ESPN sports website/IPL/Mumbai Indians/Suryakumar Yadav.xlsx
+++ b/ESPN sports website/IPL/Mumbai Indians/Suryakumar Yadav.xlsx
@@ -480,31 +480,31 @@
         <v>Suryakumar Yadav</v>
       </c>
       <c r="C3" t="str">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D3" t="str">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E3" t="str">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="str">
-        <v>144.44</v>
+        <v>152.38</v>
       </c>
       <c r="H3" t="str">
-        <v>Kolkata Knight Riders</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="I3" t="str">
-        <v>Pune</v>
+        <v>DY Patil</v>
       </c>
       <c r="J3" t="str">
-        <v>April 06, 2022</v>
+        <v>April 21, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>KKR won by 5 wickets (with 24 balls remaining)</v>
+        <v>Super Kings won by 3 wickets</v>
       </c>
     </row>
     <row r="4">
@@ -550,31 +550,31 @@
         <v>Suryakumar Yadav</v>
       </c>
       <c r="C5" t="str">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D5" t="str">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E5" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F5" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="str">
-        <v>137.03</v>
+        <v>118.18</v>
       </c>
       <c r="H5" t="str">
-        <v>Lucknow Super Giants</v>
+        <v>Gujarat Titans</v>
       </c>
       <c r="I5" t="str">
         <v>Brabourne</v>
       </c>
       <c r="J5" t="str">
-        <v>April 16, 2022</v>
+        <v>May 06, 2022</v>
       </c>
       <c r="K5" t="str">
-        <v>Super Giants won by 18 runs</v>
+        <v>Mumbai won by 5 runs</v>
       </c>
     </row>
     <row r="6">
@@ -585,31 +585,31 @@
         <v>Suryakumar Yadav</v>
       </c>
       <c r="C6" t="str">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D6" t="str">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E6" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" t="str">
         <v>0</v>
       </c>
       <c r="G6" t="str">
-        <v>100.00</v>
+        <v>137.03</v>
       </c>
       <c r="H6" t="str">
         <v>Lucknow Super Giants</v>
       </c>
       <c r="I6" t="str">
-        <v>Wankhede</v>
+        <v>Brabourne</v>
       </c>
       <c r="J6" t="str">
-        <v>April 24, 2022</v>
+        <v>April 16, 2022</v>
       </c>
       <c r="K6" t="str">
-        <v>Super Giants won by 36 runs</v>
+        <v>Super Giants won by 18 runs</v>
       </c>
     </row>
     <row r="7">
@@ -620,31 +620,31 @@
         <v>Suryakumar Yadav</v>
       </c>
       <c r="C7" t="str">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D7" t="str">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E7" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="str">
-        <v>152.38</v>
+        <v>100.00</v>
       </c>
       <c r="H7" t="str">
-        <v>Chennai Super Kings</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I7" t="str">
-        <v>DY Patil</v>
+        <v>Wankhede</v>
       </c>
       <c r="J7" t="str">
-        <v>April 21, 2022</v>
+        <v>April 24, 2022</v>
       </c>
       <c r="K7" t="str">
-        <v>Super Kings won by 3 wickets</v>
+        <v>Super Giants won by 36 runs</v>
       </c>
     </row>
     <row r="8">
@@ -655,31 +655,31 @@
         <v>Suryakumar Yadav</v>
       </c>
       <c r="C8" t="str">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D8" t="str">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E8" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F8" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G8" t="str">
-        <v>143.33</v>
+        <v>144.44</v>
       </c>
       <c r="H8" t="str">
-        <v>Punjab Kings</v>
+        <v>Kolkata Knight Riders</v>
       </c>
       <c r="I8" t="str">
         <v>Pune</v>
       </c>
       <c r="J8" t="str">
-        <v>April 13, 2022</v>
+        <v>April 06, 2022</v>
       </c>
       <c r="K8" t="str">
-        <v>Punjab Kings won by 12 runs</v>
+        <v>KKR won by 5 wickets (with 24 balls remaining)</v>
       </c>
     </row>
     <row r="9">
@@ -690,31 +690,31 @@
         <v>Suryakumar Yadav</v>
       </c>
       <c r="C9" t="str">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D9" t="str">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E9" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="str">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G9" t="str">
-        <v>118.18</v>
+        <v>143.33</v>
       </c>
       <c r="H9" t="str">
-        <v>Gujarat Titans</v>
+        <v>Punjab Kings</v>
       </c>
       <c r="I9" t="str">
-        <v>Brabourne</v>
+        <v>Pune</v>
       </c>
       <c r="J9" t="str">
-        <v>May 06, 2022</v>
+        <v>April 13, 2022</v>
       </c>
       <c r="K9" t="str">
-        <v>Mumbai won by 5 runs</v>
+        <v>Punjab Kings won by 12 runs</v>
       </c>
     </row>
   </sheetData>
